--- a/www.eia.gov/electricity/monthly/xls/table_2_03_b.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_2_03_b.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,12 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="29">
   <si>
     <t>Table 2.3.B. Petroleum Coke: Consumption for Useful Thermal Output,</t>
   </si>
   <si>
-    <t>by Sector, 2006-October 2016 (Thousand Tons)</t>
+    <t>by Sector, 2006-November 2016 (Thousand Tons)</t>
   </si>
   <si>
     <t/>
@@ -108,7 +108,7 @@
     <t>Year to Date</t>
   </si>
   <si>
-    <t>Rolling 12 Months Ending in October</t>
+    <t>Rolling 12 Months Ending in November</t>
   </si>
   <si>
     <t>Notes: Beginning with the collection of Form EIA-923 in January 2008, the methodology to allocate total fuel consumption for electricity generation and consumption for useful thermal output was changed.
@@ -1042,7 +1042,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -2030,143 +2030,163 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B53" s="9">
+        <v>77</v>
+      </c>
+      <c r="C53" s="9">
+        <v>0</v>
+      </c>
+      <c r="D53" s="9">
+        <v>9</v>
+      </c>
+      <c r="E53" s="9">
+        <v>0.16</v>
+      </c>
+      <c r="F53" s="9">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="8">
-        <v>2014</v>
-      </c>
-      <c r="B54" s="9">
-        <v>1064</v>
-      </c>
-      <c r="C54" s="9">
-        <v>2</v>
-      </c>
-      <c r="D54" s="9">
-        <v>71</v>
-      </c>
-      <c r="E54" s="9">
-        <v>12</v>
-      </c>
-      <c r="F54" s="9">
-        <v>978</v>
-      </c>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B55" s="9">
-        <v>952</v>
+        <v>1168</v>
       </c>
       <c r="C55" s="9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D55" s="9">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E55" s="9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F55" s="9">
-        <v>844</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
+        <v>2015</v>
+      </c>
+      <c r="B56" s="9">
+        <v>1058</v>
+      </c>
+      <c r="C56" s="9">
+        <v>9</v>
+      </c>
+      <c r="D56" s="9">
+        <v>99</v>
+      </c>
+      <c r="E56" s="9">
+        <v>15</v>
+      </c>
+      <c r="F56" s="9">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="8">
         <v>2016</v>
       </c>
-      <c r="B56" s="9">
-        <v>846</v>
-      </c>
-      <c r="C56" s="9">
+      <c r="B57" s="9">
+        <v>923</v>
+      </c>
+      <c r="C57" s="9">
         <v>2</v>
       </c>
-      <c r="D56" s="9">
-        <v>86</v>
-      </c>
-      <c r="E56" s="9">
+      <c r="D57" s="9">
+        <v>95</v>
+      </c>
+      <c r="E57" s="9">
         <v>7</v>
       </c>
-      <c r="F56" s="9">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
+      <c r="F57" s="9">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="8">
-        <v>2015</v>
-      </c>
-      <c r="B58" s="9">
-        <v>1171</v>
-      </c>
-      <c r="C58" s="9">
-        <v>7</v>
-      </c>
-      <c r="D58" s="9">
-        <v>108</v>
-      </c>
-      <c r="E58" s="9">
-        <v>17</v>
-      </c>
-      <c r="F58" s="9">
-        <v>1039</v>
-      </c>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
+        <v>2015</v>
+      </c>
+      <c r="B59" s="9">
+        <v>1172</v>
+      </c>
+      <c r="C59" s="9">
+        <v>9</v>
+      </c>
+      <c r="D59" s="9">
+        <v>108</v>
+      </c>
+      <c r="E59" s="9">
+        <v>17</v>
+      </c>
+      <c r="F59" s="9">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="8">
         <v>2016</v>
       </c>
-      <c r="B59" s="9">
-        <v>1038</v>
-      </c>
-      <c r="C59" s="9">
-        <v>5</v>
-      </c>
-      <c r="D59" s="9">
+      <c r="B60" s="9">
+        <v>1009</v>
+      </c>
+      <c r="C60" s="9">
+        <v>2</v>
+      </c>
+      <c r="D60" s="9">
         <v>106</v>
       </c>
-      <c r="E59" s="9">
-        <v>10</v>
-      </c>
-      <c r="F59" s="9">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="195" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="10" t="s">
+      <c r="E60" s="9">
+        <v>9</v>
+      </c>
+      <c r="F60" s="9">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="195" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="A29:F29"/>
     <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="A61:F61"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:B3"/>
